--- a/docs/assets/InitFile.xlsx
+++ b/docs/assets/InitFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="players" sheetId="7" r:id="rId1"/>
@@ -1268,7 +1268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1293,17 +1293,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1650,8 +1644,8 @@
   <sheetPr codeName="Аркуш1"/>
   <dimension ref="A1:L219"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="K119" sqref="K119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1660,7 @@
     <col min="8" max="8" width="17.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.5703125" style="24"/>
+    <col min="11" max="11" width="33.5703125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1703,7 +1697,7 @@
       <c r="K1" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="24" t="s">
         <v>349</v>
       </c>
     </row>
@@ -1738,8 +1732,8 @@
       <c r="J2" s="2">
         <v>220000</v>
       </c>
-      <c r="K2" s="24">
-        <v>1540000</v>
+      <c r="K2" s="22">
+        <v>11540000</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -1756,7 +1750,7 @@
         <v>315</v>
       </c>
       <c r="D3" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>169</v>
@@ -1776,8 +1770,8 @@
       <c r="J3" s="2">
         <v>340000</v>
       </c>
-      <c r="K3" s="24">
-        <v>1740000</v>
+      <c r="K3" s="22">
+        <v>17740000</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -1794,7 +1788,7 @@
         <v>314</v>
       </c>
       <c r="D4" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>170</v>
@@ -1814,11 +1808,11 @@
       <c r="J4" s="2">
         <v>390000</v>
       </c>
-      <c r="K4" s="24">
-        <v>3290000</v>
+      <c r="K4" s="22">
+        <v>13290000</v>
       </c>
       <c r="L4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1852,8 +1846,8 @@
       <c r="J5" s="2">
         <v>200000</v>
       </c>
-      <c r="K5" s="24">
-        <v>1330000</v>
+      <c r="K5" s="22">
+        <v>11330000</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -1890,11 +1884,11 @@
       <c r="J6" s="2">
         <v>220000</v>
       </c>
-      <c r="K6" s="24">
-        <v>1750000</v>
+      <c r="K6" s="22">
+        <v>10750000</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1928,8 +1922,8 @@
       <c r="J7" s="2">
         <v>130000</v>
       </c>
-      <c r="K7" s="24">
-        <v>810000</v>
+      <c r="K7" s="22">
+        <v>8170000</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1966,7 +1960,7 @@
       <c r="J8" s="2">
         <v>430000</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="22">
         <v>3130000</v>
       </c>
       <c r="L8" t="b">
@@ -1984,7 +1978,7 @@
         <v>317</v>
       </c>
       <c r="D9" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>172</v>
@@ -2004,11 +1998,11 @@
       <c r="J9" s="2">
         <v>510000</v>
       </c>
-      <c r="K9" s="24">
-        <v>4150000</v>
+      <c r="K9" s="22">
+        <v>14150000</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2042,8 +2036,8 @@
       <c r="J10" s="2">
         <v>350000</v>
       </c>
-      <c r="K10" s="24">
-        <v>2410000</v>
+      <c r="K10" s="22">
+        <v>12410000</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -2080,8 +2074,8 @@
       <c r="J11" s="2">
         <v>260000</v>
       </c>
-      <c r="K11" s="24">
-        <v>2300000</v>
+      <c r="K11" s="22">
+        <v>10300000</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -2118,11 +2112,11 @@
       <c r="J12" s="2">
         <v>630000</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="22">
         <v>5570000</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2156,7 +2150,7 @@
       <c r="J13" s="2">
         <v>700000</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="22">
         <v>4050000</v>
       </c>
       <c r="L13" t="b">
@@ -2174,7 +2168,7 @@
         <v>316</v>
       </c>
       <c r="D14" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>177</v>
@@ -2194,7 +2188,7 @@
       <c r="J14" s="2">
         <v>500000</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="22">
         <v>5350000</v>
       </c>
       <c r="L14" t="b">
@@ -2212,7 +2206,7 @@
         <v>315</v>
       </c>
       <c r="D15" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>175</v>
@@ -2232,7 +2226,7 @@
       <c r="J15" s="2">
         <v>500000</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="22">
         <v>4970000</v>
       </c>
       <c r="L15" t="b">
@@ -2270,7 +2264,7 @@
       <c r="J16" s="2">
         <v>500000</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="22">
         <v>3000000</v>
       </c>
       <c r="L16" t="b">
@@ -2288,7 +2282,7 @@
         <v>317</v>
       </c>
       <c r="D17" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>178</v>
@@ -2308,8 +2302,8 @@
       <c r="J17" s="2">
         <v>450000</v>
       </c>
-      <c r="K17" s="24">
-        <v>4380000</v>
+      <c r="K17" s="22">
+        <v>9380000</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -2326,7 +2320,7 @@
         <v>314</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>171</v>
@@ -2346,8 +2340,8 @@
       <c r="J18" s="2">
         <v>110000</v>
       </c>
-      <c r="K18" s="24">
-        <v>690000</v>
+      <c r="K18" s="22">
+        <v>6090000</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -2364,7 +2358,7 @@
         <v>315</v>
       </c>
       <c r="D19" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>170</v>
@@ -2384,8 +2378,8 @@
       <c r="J19" s="2">
         <v>310000</v>
       </c>
-      <c r="K19" s="24">
-        <v>2650000</v>
+      <c r="K19" s="22">
+        <v>15650000</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -2422,8 +2416,8 @@
       <c r="J20" s="2">
         <v>200000</v>
       </c>
-      <c r="K20" s="24">
-        <v>1240000</v>
+      <c r="K20" s="22">
+        <v>11240000</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2460,8 +2454,8 @@
       <c r="J21" s="2">
         <v>150000</v>
       </c>
-      <c r="K21" s="24">
-        <v>880000</v>
+      <c r="K21" s="22">
+        <v>3880000</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2498,8 +2492,8 @@
       <c r="J22" s="2">
         <v>160000</v>
       </c>
-      <c r="K22" s="24">
-        <v>1290000</v>
+      <c r="K22" s="22">
+        <v>5290000</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -2536,8 +2530,8 @@
       <c r="J23" s="2">
         <v>280000</v>
       </c>
-      <c r="K23" s="24">
-        <v>1700000</v>
+      <c r="K23" s="22">
+        <v>4700000</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2574,8 +2568,8 @@
       <c r="J24" s="2">
         <v>220000</v>
       </c>
-      <c r="K24" s="24">
-        <v>1700000</v>
+      <c r="K24" s="22">
+        <v>11700000</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2592,7 +2586,7 @@
         <v>317</v>
       </c>
       <c r="D25" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>179</v>
@@ -2612,8 +2606,8 @@
       <c r="J25" s="2">
         <v>240000</v>
       </c>
-      <c r="K25" s="24">
-        <v>3110000</v>
+      <c r="K25" s="22">
+        <v>13110000</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2650,8 +2644,8 @@
       <c r="J26" s="2">
         <v>370000</v>
       </c>
-      <c r="K26" s="24">
-        <v>3720000</v>
+      <c r="K26" s="22">
+        <v>7720000</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
@@ -2688,8 +2682,8 @@
       <c r="J27" s="2">
         <v>290000</v>
       </c>
-      <c r="K27" s="24">
-        <v>2750000</v>
+      <c r="K27" s="22">
+        <v>8750000</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2706,7 +2700,7 @@
         <v>316</v>
       </c>
       <c r="D28" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>179</v>
@@ -2726,8 +2720,8 @@
       <c r="J28" s="2">
         <v>290000</v>
       </c>
-      <c r="K28" s="24">
-        <v>3740000</v>
+      <c r="K28" s="22">
+        <v>13740000</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2744,7 +2738,7 @@
         <v>314</v>
       </c>
       <c r="D29" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>175</v>
@@ -2764,11 +2758,11 @@
       <c r="J29" s="2">
         <v>170000</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="22">
         <v>1730000</v>
       </c>
       <c r="L29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2802,7 +2796,7 @@
       <c r="J30" s="2">
         <v>260000</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="22">
         <v>1670000</v>
       </c>
       <c r="L30" t="b">
@@ -2820,7 +2814,7 @@
         <v>316</v>
       </c>
       <c r="D31" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>178</v>
@@ -2840,7 +2834,7 @@
       <c r="J31" s="2">
         <v>270000</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="22">
         <v>2290000</v>
       </c>
       <c r="L31" t="b">
@@ -2878,8 +2872,8 @@
       <c r="J32" s="2">
         <v>240000</v>
       </c>
-      <c r="K32" s="24">
-        <v>1460000</v>
+      <c r="K32" s="22">
+        <v>6460000</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2896,7 +2890,7 @@
         <v>314</v>
       </c>
       <c r="D33" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>179</v>
@@ -2916,7 +2910,7 @@
       <c r="J33" s="2">
         <v>300000</v>
       </c>
-      <c r="K33" s="24">
+      <c r="K33" s="22">
         <v>3830000</v>
       </c>
       <c r="L33" t="b">
@@ -2934,7 +2928,7 @@
         <v>316</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>174</v>
@@ -2954,7 +2948,7 @@
       <c r="J34" s="2">
         <v>160000</v>
       </c>
-      <c r="K34" s="24">
+      <c r="K34" s="22">
         <v>1620000</v>
       </c>
       <c r="L34" t="b">
@@ -2992,7 +2986,7 @@
       <c r="J35" s="2">
         <v>240000</v>
       </c>
-      <c r="K35" s="24">
+      <c r="K35" s="22">
         <v>1970000</v>
       </c>
       <c r="L35" t="b">
@@ -3010,7 +3004,7 @@
         <v>316</v>
       </c>
       <c r="D36" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>168</v>
@@ -3030,7 +3024,7 @@
       <c r="J36" s="2">
         <v>150000</v>
       </c>
-      <c r="K36" s="24">
+      <c r="K36" s="22">
         <v>1020000</v>
       </c>
       <c r="L36" t="b">
@@ -3068,8 +3062,8 @@
       <c r="J37" s="2">
         <v>10000</v>
       </c>
-      <c r="K37" s="24">
-        <v>30000</v>
+      <c r="K37" s="22">
+        <v>330000</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -3086,7 +3080,7 @@
         <v>314</v>
       </c>
       <c r="D38" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>173</v>
@@ -3106,11 +3100,11 @@
       <c r="J38" s="2">
         <v>20000</v>
       </c>
-      <c r="K38" s="24">
+      <c r="K38" s="22">
         <v>160000</v>
       </c>
       <c r="L38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3144,7 +3138,7 @@
       <c r="J39" s="2">
         <v>40000</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K39" s="22">
         <v>280000</v>
       </c>
       <c r="L39" t="b">
@@ -3182,11 +3176,11 @@
       <c r="J40" s="2">
         <v>40000</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="22">
         <v>150000</v>
       </c>
       <c r="L40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3220,7 +3214,7 @@
       <c r="J41" s="2">
         <v>90000</v>
       </c>
-      <c r="K41" s="24">
+      <c r="K41" s="22">
         <v>240000</v>
       </c>
       <c r="L41" t="b">
@@ -3258,7 +3252,7 @@
       <c r="J42" s="2">
         <v>70000</v>
       </c>
-      <c r="K42" s="24">
+      <c r="K42" s="22">
         <v>220000</v>
       </c>
       <c r="L42" t="b">
@@ -3296,7 +3290,7 @@
       <c r="J43" s="2">
         <v>70000</v>
       </c>
-      <c r="K43" s="24">
+      <c r="K43" s="22">
         <v>350000</v>
       </c>
       <c r="L43" t="b">
@@ -3334,7 +3328,7 @@
       <c r="J44" s="2">
         <v>80000</v>
       </c>
-      <c r="K44" s="24">
+      <c r="K44" s="22">
         <v>500000</v>
       </c>
       <c r="L44" t="b">
@@ -3352,7 +3346,7 @@
         <v>316</v>
       </c>
       <c r="D45" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>178</v>
@@ -3372,8 +3366,8 @@
       <c r="J45" s="2">
         <v>40000</v>
       </c>
-      <c r="K45" s="24">
-        <v>360000</v>
+      <c r="K45" s="22">
+        <v>960000</v>
       </c>
       <c r="L45" t="b">
         <v>1</v>
@@ -3390,7 +3384,7 @@
         <v>314</v>
       </c>
       <c r="D46" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>168</v>
@@ -3410,7 +3404,7 @@
       <c r="J46" s="2">
         <v>40000</v>
       </c>
-      <c r="K46" s="24">
+      <c r="K46" s="22">
         <v>270000</v>
       </c>
       <c r="L46" t="b">
@@ -3448,11 +3442,11 @@
       <c r="J47" s="2">
         <v>40000</v>
       </c>
-      <c r="K47" s="24">
+      <c r="K47" s="22">
         <v>170000</v>
       </c>
       <c r="L47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3486,7 +3480,7 @@
       <c r="J48" s="2">
         <v>20000</v>
       </c>
-      <c r="K48" s="24">
+      <c r="K48" s="22">
         <v>120000</v>
       </c>
       <c r="L48" t="b">
@@ -3504,7 +3498,7 @@
         <v>315</v>
       </c>
       <c r="D49" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>175</v>
@@ -3524,7 +3518,7 @@
       <c r="J49" s="2">
         <v>50000</v>
       </c>
-      <c r="K49" s="24">
+      <c r="K49" s="22">
         <v>440000</v>
       </c>
       <c r="L49" t="b">
@@ -3562,7 +3556,7 @@
       <c r="J50" s="2">
         <v>70000</v>
       </c>
-      <c r="K50" s="24">
+      <c r="K50" s="22">
         <v>260000</v>
       </c>
       <c r="L50" t="b">
@@ -3580,7 +3574,7 @@
         <v>314</v>
       </c>
       <c r="D51" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>180</v>
@@ -3600,11 +3594,11 @@
       <c r="J51" s="2">
         <v>60000</v>
       </c>
-      <c r="K51" s="24">
+      <c r="K51" s="22">
         <v>670000</v>
       </c>
       <c r="L51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3618,7 +3612,7 @@
         <v>317</v>
       </c>
       <c r="D52" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>177</v>
@@ -3638,7 +3632,7 @@
       <c r="J52" s="2">
         <v>90000</v>
       </c>
-      <c r="K52" s="24">
+      <c r="K52" s="22">
         <v>900000</v>
       </c>
       <c r="L52" t="b">
@@ -3656,7 +3650,7 @@
         <v>314</v>
       </c>
       <c r="D53" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>174</v>
@@ -3676,11 +3670,11 @@
       <c r="J53" s="2">
         <v>90000</v>
       </c>
-      <c r="K53" s="24">
+      <c r="K53" s="22">
         <v>700000</v>
       </c>
       <c r="L53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3714,7 +3708,7 @@
       <c r="J54" s="2">
         <v>40000</v>
       </c>
-      <c r="K54" s="24">
+      <c r="K54" s="22">
         <v>260000</v>
       </c>
       <c r="L54" t="b">
@@ -3752,7 +3746,7 @@
       <c r="J55" s="2">
         <v>90000</v>
       </c>
-      <c r="K55" s="24">
+      <c r="K55" s="22">
         <v>480000</v>
       </c>
       <c r="L55" t="b">
@@ -3790,11 +3784,11 @@
       <c r="J56" s="2">
         <v>70000</v>
       </c>
-      <c r="K56" s="24">
+      <c r="K56" s="22">
         <v>200000</v>
       </c>
       <c r="L56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3808,7 +3802,7 @@
         <v>316</v>
       </c>
       <c r="D57" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>173</v>
@@ -3828,7 +3822,7 @@
       <c r="J57" s="2">
         <v>70000</v>
       </c>
-      <c r="K57" s="24">
+      <c r="K57" s="22">
         <v>610000</v>
       </c>
       <c r="L57" t="b">
@@ -3866,7 +3860,7 @@
       <c r="J58" s="2">
         <v>100000</v>
       </c>
-      <c r="K58" s="24">
+      <c r="K58" s="22">
         <v>430000</v>
       </c>
       <c r="L58" t="b">
@@ -3904,7 +3898,7 @@
       <c r="J59" s="2">
         <v>50000</v>
       </c>
-      <c r="K59" s="24">
+      <c r="K59" s="22">
         <v>150000</v>
       </c>
       <c r="L59" t="b">
@@ -3942,7 +3936,7 @@
       <c r="J60" s="2">
         <v>80000</v>
       </c>
-      <c r="K60" s="24">
+      <c r="K60" s="22">
         <v>220000</v>
       </c>
       <c r="L60" t="b">
@@ -3960,7 +3954,7 @@
         <v>317</v>
       </c>
       <c r="D61" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>172</v>
@@ -3980,11 +3974,11 @@
       <c r="J61" s="2">
         <v>70000</v>
       </c>
-      <c r="K61" s="24">
+      <c r="K61" s="22">
         <v>440000</v>
       </c>
       <c r="L61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -4018,7 +4012,7 @@
       <c r="J62" s="2">
         <v>70000</v>
       </c>
-      <c r="K62" s="24">
+      <c r="K62" s="22">
         <v>330000</v>
       </c>
       <c r="L62" t="b">
@@ -4056,7 +4050,7 @@
       <c r="J63" s="2">
         <v>40000</v>
       </c>
-      <c r="K63" s="24">
+      <c r="K63" s="22">
         <v>230000</v>
       </c>
       <c r="L63" t="b">
@@ -4094,7 +4088,7 @@
       <c r="J64" s="2">
         <v>80000</v>
       </c>
-      <c r="K64" s="24">
+      <c r="K64" s="22">
         <v>330000</v>
       </c>
       <c r="L64" t="b">
@@ -4132,11 +4126,11 @@
       <c r="J65" s="2">
         <v>10000</v>
       </c>
-      <c r="K65" s="24">
+      <c r="K65" s="22">
         <v>70000</v>
       </c>
       <c r="L65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -4170,7 +4164,7 @@
       <c r="J66" s="2">
         <v>80000</v>
       </c>
-      <c r="K66" s="24">
+      <c r="K66" s="22">
         <v>610000</v>
       </c>
       <c r="L66" t="b">
@@ -4208,7 +4202,7 @@
       <c r="J67" s="2">
         <v>50000</v>
       </c>
-      <c r="K67" s="24">
+      <c r="K67" s="22">
         <v>260000</v>
       </c>
       <c r="L67" t="b">
@@ -4246,7 +4240,7 @@
       <c r="J68" s="2">
         <v>60000</v>
       </c>
-      <c r="K68" s="24">
+      <c r="K68" s="22">
         <v>230000</v>
       </c>
       <c r="L68" t="b">
@@ -4284,7 +4278,7 @@
       <c r="J69" s="2">
         <v>30000</v>
       </c>
-      <c r="K69" s="24">
+      <c r="K69" s="22">
         <v>120000</v>
       </c>
       <c r="L69" t="b">
@@ -4302,7 +4296,7 @@
         <v>314</v>
       </c>
       <c r="D70" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>178</v>
@@ -4322,7 +4316,7 @@
       <c r="J70" s="2">
         <v>70000</v>
       </c>
-      <c r="K70" s="24">
+      <c r="K70" s="22">
         <v>440000</v>
       </c>
       <c r="L70" t="b">
@@ -4340,7 +4334,7 @@
         <v>314</v>
       </c>
       <c r="D71" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>170</v>
@@ -4360,11 +4354,11 @@
       <c r="J71" s="2">
         <v>60000</v>
       </c>
-      <c r="K71" s="24">
+      <c r="K71" s="22">
         <v>480000</v>
       </c>
       <c r="L71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -4398,11 +4392,11 @@
       <c r="J72" s="2">
         <v>40000</v>
       </c>
-      <c r="K72" s="24">
+      <c r="K72" s="22">
         <v>140000</v>
       </c>
       <c r="L72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -4436,7 +4430,7 @@
       <c r="J73" s="2">
         <v>50000</v>
       </c>
-      <c r="K73" s="24">
+      <c r="K73" s="22">
         <v>260000</v>
       </c>
       <c r="L73" t="b">
@@ -4474,7 +4468,7 @@
       <c r="J74" s="2">
         <v>60000</v>
       </c>
-      <c r="K74" s="24">
+      <c r="K74" s="22">
         <v>390000</v>
       </c>
       <c r="L74" t="b">
@@ -4512,7 +4506,7 @@
       <c r="J75" s="2">
         <v>60000</v>
       </c>
-      <c r="K75" s="24">
+      <c r="K75" s="22">
         <v>260000</v>
       </c>
       <c r="L75" t="b">
@@ -4550,7 +4544,7 @@
       <c r="J76" s="2">
         <v>70000</v>
       </c>
-      <c r="K76" s="24">
+      <c r="K76" s="22">
         <v>460000</v>
       </c>
       <c r="L76" t="b">
@@ -4588,11 +4582,11 @@
       <c r="J77" s="2">
         <v>30000</v>
       </c>
-      <c r="K77" s="24">
+      <c r="K77" s="22">
         <v>240000</v>
       </c>
       <c r="L77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -4606,7 +4600,7 @@
         <v>316</v>
       </c>
       <c r="D78" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>183</v>
@@ -4626,7 +4620,7 @@
       <c r="J78" s="2">
         <v>80000</v>
       </c>
-      <c r="K78" s="24">
+      <c r="K78" s="22">
         <v>630000</v>
       </c>
       <c r="L78" t="b">
@@ -4664,7 +4658,7 @@
       <c r="J79" s="2">
         <v>100000</v>
       </c>
-      <c r="K79" s="24">
+      <c r="K79" s="22">
         <v>500000</v>
       </c>
       <c r="L79" t="b">
@@ -4702,11 +4696,11 @@
       <c r="J80" s="2">
         <v>20000</v>
       </c>
-      <c r="K80" s="24">
+      <c r="K80" s="22">
         <v>60000</v>
       </c>
       <c r="L80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -4740,7 +4734,7 @@
       <c r="J81" s="2">
         <v>20000</v>
       </c>
-      <c r="K81" s="24">
+      <c r="K81" s="22">
         <v>110000</v>
       </c>
       <c r="L81" t="b">
@@ -4758,7 +4752,7 @@
         <v>314</v>
       </c>
       <c r="D82" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>178</v>
@@ -4778,7 +4772,7 @@
       <c r="J82" s="2">
         <v>50000</v>
       </c>
-      <c r="K82" s="24">
+      <c r="K82" s="22">
         <v>510000</v>
       </c>
       <c r="L82" t="b">
@@ -4796,7 +4790,7 @@
         <v>317</v>
       </c>
       <c r="D83" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>174</v>
@@ -4816,11 +4810,11 @@
       <c r="J83" s="2">
         <v>20000</v>
       </c>
-      <c r="K83" s="24">
+      <c r="K83" s="22">
         <v>210000</v>
       </c>
       <c r="L83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -4854,7 +4848,7 @@
       <c r="J84" s="2">
         <v>20000</v>
       </c>
-      <c r="K84" s="24">
+      <c r="K84" s="22">
         <v>120000</v>
       </c>
       <c r="L84" t="b">
@@ -4892,11 +4886,11 @@
       <c r="J85" s="2">
         <v>80000</v>
       </c>
-      <c r="K85" s="24">
+      <c r="K85" s="22">
         <v>240000</v>
       </c>
       <c r="L85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -4910,7 +4904,7 @@
         <v>314</v>
       </c>
       <c r="D86" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>168</v>
@@ -4930,7 +4924,7 @@
       <c r="J86" s="2">
         <v>40000</v>
       </c>
-      <c r="K86" s="24">
+      <c r="K86" s="22">
         <v>320000</v>
       </c>
       <c r="L86" t="b">
@@ -4948,7 +4942,7 @@
         <v>314</v>
       </c>
       <c r="D87" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>178</v>
@@ -4968,11 +4962,11 @@
       <c r="J87" s="2">
         <v>30000</v>
       </c>
-      <c r="K87" s="24">
+      <c r="K87" s="22">
         <v>270000</v>
       </c>
       <c r="L87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -5006,7 +5000,7 @@
       <c r="J88" s="2">
         <v>50000</v>
       </c>
-      <c r="K88" s="24">
+      <c r="K88" s="22">
         <v>190000</v>
       </c>
       <c r="L88" t="b">
@@ -5044,7 +5038,7 @@
       <c r="J89" s="2">
         <v>60000</v>
       </c>
-      <c r="K89" s="24">
+      <c r="K89" s="22">
         <v>260000</v>
       </c>
       <c r="L89" t="b">
@@ -5082,7 +5076,7 @@
       <c r="J90" s="2">
         <v>30000</v>
       </c>
-      <c r="K90" s="24">
+      <c r="K90" s="22">
         <v>260000</v>
       </c>
       <c r="L90" t="b">
@@ -5100,7 +5094,7 @@
         <v>316</v>
       </c>
       <c r="D91" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>175</v>
@@ -5120,7 +5114,7 @@
       <c r="J91" s="2">
         <v>70000</v>
       </c>
-      <c r="K91" s="24">
+      <c r="K91" s="22">
         <v>600000</v>
       </c>
       <c r="L91" t="b">
@@ -5158,7 +5152,7 @@
       <c r="J92" s="2">
         <v>50000</v>
       </c>
-      <c r="K92" s="24">
+      <c r="K92" s="22">
         <v>290000</v>
       </c>
       <c r="L92" t="b">
@@ -5196,11 +5190,11 @@
       <c r="J93" s="2">
         <v>60000</v>
       </c>
-      <c r="K93" s="24">
+      <c r="K93" s="22">
         <v>270000</v>
       </c>
       <c r="L93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -5234,7 +5228,7 @@
       <c r="J94" s="2">
         <v>80000</v>
       </c>
-      <c r="K94" s="24">
+      <c r="K94" s="22">
         <v>240000</v>
       </c>
       <c r="L94" t="b">
@@ -5272,7 +5266,7 @@
       <c r="J95" s="2">
         <v>70000</v>
       </c>
-      <c r="K95" s="24">
+      <c r="K95" s="22">
         <v>170000</v>
       </c>
       <c r="L95" t="b">
@@ -5310,7 +5304,7 @@
       <c r="J96" s="2">
         <v>90000</v>
       </c>
-      <c r="K96" s="24">
+      <c r="K96" s="22">
         <v>380000</v>
       </c>
       <c r="L96" t="b">
@@ -5348,7 +5342,7 @@
       <c r="J97" s="2">
         <v>50000</v>
       </c>
-      <c r="K97" s="24">
+      <c r="K97" s="22">
         <v>210000</v>
       </c>
       <c r="L97" t="b">
@@ -5366,7 +5360,7 @@
         <v>315</v>
       </c>
       <c r="D98" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>184</v>
@@ -5386,11 +5380,11 @@
       <c r="J98" s="2">
         <v>40000</v>
       </c>
-      <c r="K98" s="24">
+      <c r="K98" s="22">
         <v>290000</v>
       </c>
       <c r="L98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -5424,7 +5418,7 @@
       <c r="J99" s="2">
         <v>100000</v>
       </c>
-      <c r="K99" s="24">
+      <c r="K99" s="22">
         <v>340000</v>
       </c>
       <c r="L99" t="b">
@@ -5462,7 +5456,7 @@
       <c r="J100" s="2">
         <v>90000</v>
       </c>
-      <c r="K100" s="24">
+      <c r="K100" s="22">
         <v>300000</v>
       </c>
       <c r="L100" t="b">
@@ -5500,7 +5494,7 @@
       <c r="J101" s="2">
         <v>30000</v>
       </c>
-      <c r="K101" s="24">
+      <c r="K101" s="22">
         <v>260000</v>
       </c>
       <c r="L101" t="b">
@@ -5538,7 +5532,7 @@
       <c r="J102" s="2">
         <v>40000</v>
       </c>
-      <c r="K102" s="24">
+      <c r="K102" s="22">
         <v>120000</v>
       </c>
       <c r="L102" t="b">
@@ -5556,7 +5550,7 @@
         <v>315</v>
       </c>
       <c r="D103" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>178</v>
@@ -5576,7 +5570,7 @@
       <c r="J103" s="2">
         <v>60000</v>
       </c>
-      <c r="K103" s="24">
+      <c r="K103" s="22">
         <v>600000</v>
       </c>
       <c r="L103" t="b">
@@ -5614,7 +5608,7 @@
       <c r="J104" s="2">
         <v>40000</v>
       </c>
-      <c r="K104" s="24">
+      <c r="K104" s="22">
         <v>310000</v>
       </c>
       <c r="L104" t="b">
@@ -5652,7 +5646,7 @@
       <c r="J105" s="2">
         <v>70000</v>
       </c>
-      <c r="K105" s="24">
+      <c r="K105" s="22">
         <v>480000</v>
       </c>
       <c r="L105" t="b">
@@ -5690,7 +5684,7 @@
       <c r="J106" s="2">
         <v>80000</v>
       </c>
-      <c r="K106" s="24">
+      <c r="K106" s="22">
         <v>320000</v>
       </c>
       <c r="L106" t="b">
@@ -5728,7 +5722,7 @@
       <c r="J107" s="2">
         <v>60000</v>
       </c>
-      <c r="K107" s="24">
+      <c r="K107" s="22">
         <v>180000</v>
       </c>
       <c r="L107" t="b">
@@ -5766,11 +5760,11 @@
       <c r="J108" s="2">
         <v>70000</v>
       </c>
-      <c r="K108" s="24">
+      <c r="K108" s="22">
         <v>420000</v>
       </c>
       <c r="L108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -5804,7 +5798,7 @@
       <c r="J109" s="2">
         <v>10000</v>
       </c>
-      <c r="K109" s="24">
+      <c r="K109" s="22">
         <v>50000</v>
       </c>
       <c r="L109" t="b">
@@ -5842,11 +5836,11 @@
       <c r="J110" s="2">
         <v>60000</v>
       </c>
-      <c r="K110" s="24">
+      <c r="K110" s="22">
         <v>320000</v>
       </c>
       <c r="L110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -5880,7 +5874,7 @@
       <c r="J111" s="2">
         <v>50000</v>
       </c>
-      <c r="K111" s="24">
+      <c r="K111" s="22">
         <v>230000</v>
       </c>
       <c r="L111" t="b">
@@ -5898,7 +5892,7 @@
         <v>314</v>
       </c>
       <c r="D112" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>171</v>
@@ -5918,11 +5912,11 @@
       <c r="J112" s="2">
         <v>30000</v>
       </c>
-      <c r="K112" s="24">
+      <c r="K112" s="22">
         <v>270000</v>
       </c>
       <c r="L112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -5936,7 +5930,7 @@
         <v>316</v>
       </c>
       <c r="D113" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>169</v>
@@ -5956,7 +5950,7 @@
       <c r="J113" s="2">
         <v>20000</v>
       </c>
-      <c r="K113" s="24">
+      <c r="K113" s="22">
         <v>130000</v>
       </c>
       <c r="L113" t="b">
@@ -5994,11 +5988,11 @@
       <c r="J114" s="2">
         <v>100000</v>
       </c>
-      <c r="K114" s="24">
+      <c r="K114" s="22">
         <v>630000</v>
       </c>
       <c r="L114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -6032,7 +6026,7 @@
       <c r="J115" s="2">
         <v>30000</v>
       </c>
-      <c r="K115" s="24">
+      <c r="K115" s="22">
         <v>170000</v>
       </c>
       <c r="L115" t="b">
@@ -6050,7 +6044,7 @@
         <v>314</v>
       </c>
       <c r="D116" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>169</v>
@@ -6070,7 +6064,7 @@
       <c r="J116" s="2">
         <v>70000</v>
       </c>
-      <c r="K116" s="24">
+      <c r="K116" s="22">
         <v>510000</v>
       </c>
       <c r="L116" t="b">
@@ -6088,7 +6082,7 @@
         <v>314</v>
       </c>
       <c r="D117" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>173</v>
@@ -6108,7 +6102,7 @@
       <c r="J117" s="2">
         <v>20000</v>
       </c>
-      <c r="K117" s="24">
+      <c r="K117" s="22">
         <v>150000</v>
       </c>
       <c r="L117" t="b">
@@ -6146,7 +6140,7 @@
       <c r="J118" s="2">
         <v>60000</v>
       </c>
-      <c r="K118" s="24">
+      <c r="K118" s="22">
         <v>370000</v>
       </c>
       <c r="L118" t="b">
@@ -6184,7 +6178,7 @@
       <c r="J119" s="2">
         <v>30000</v>
       </c>
-      <c r="K119" s="24">
+      <c r="K119" s="22">
         <v>80000</v>
       </c>
       <c r="L119" t="b">
@@ -6202,7 +6196,7 @@
         <v>316</v>
       </c>
       <c r="D120" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>171</v>
@@ -6222,11 +6216,11 @@
       <c r="J120" s="2">
         <v>90000</v>
       </c>
-      <c r="K120" s="24">
+      <c r="K120" s="22">
         <v>880000</v>
       </c>
       <c r="L120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -6260,11 +6254,11 @@
       <c r="J121" s="2">
         <v>100000</v>
       </c>
-      <c r="K121" s="24">
+      <c r="K121" s="22">
         <v>500000</v>
       </c>
       <c r="L121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -6278,7 +6272,7 @@
         <v>317</v>
       </c>
       <c r="D122" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>171</v>
@@ -6298,7 +6292,7 @@
       <c r="J122" s="2">
         <v>20000</v>
       </c>
-      <c r="K122" s="24">
+      <c r="K122" s="22">
         <v>130000</v>
       </c>
       <c r="L122" t="b">
@@ -6336,7 +6330,7 @@
       <c r="J123" s="2">
         <v>30000</v>
       </c>
-      <c r="K123" s="24">
+      <c r="K123" s="22">
         <v>130000</v>
       </c>
       <c r="L123" t="b">
@@ -6374,11 +6368,11 @@
       <c r="J124" s="2">
         <v>90000</v>
       </c>
-      <c r="K124" s="24">
+      <c r="K124" s="22">
         <v>270000</v>
       </c>
       <c r="L124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -6412,8 +6406,8 @@
       <c r="J125" s="2">
         <v>10000</v>
       </c>
-      <c r="K125" s="24">
-        <v>40000</v>
+      <c r="K125" s="22">
+        <v>400000</v>
       </c>
       <c r="L125" t="b">
         <v>0</v>
@@ -6430,7 +6424,7 @@
         <v>314</v>
       </c>
       <c r="D126" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>176</v>
@@ -6450,11 +6444,11 @@
       <c r="J126" s="2">
         <v>10000</v>
       </c>
-      <c r="K126" s="24">
-        <v>110000</v>
+      <c r="K126" s="22">
+        <v>410000</v>
       </c>
       <c r="L126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -6468,7 +6462,7 @@
         <v>317</v>
       </c>
       <c r="D127" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>187</v>
@@ -6488,7 +6482,7 @@
       <c r="J127" s="2">
         <v>40000</v>
       </c>
-      <c r="K127" s="24">
+      <c r="K127" s="22">
         <v>230000</v>
       </c>
       <c r="L127" t="b">
@@ -6526,7 +6520,7 @@
       <c r="J128" s="2">
         <v>60000</v>
       </c>
-      <c r="K128" s="24">
+      <c r="K128" s="22">
         <v>220000</v>
       </c>
       <c r="L128" t="b">
@@ -6564,7 +6558,7 @@
       <c r="J129" s="2">
         <v>80000</v>
       </c>
-      <c r="K129" s="24">
+      <c r="K129" s="22">
         <v>450000</v>
       </c>
       <c r="L129" t="b">
@@ -6582,7 +6576,7 @@
         <v>314</v>
       </c>
       <c r="D130" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>168</v>
@@ -6602,11 +6596,11 @@
       <c r="J130" s="2">
         <v>20000</v>
       </c>
-      <c r="K130" s="24">
+      <c r="K130" s="22">
         <v>170000</v>
       </c>
       <c r="L130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -6640,7 +6634,7 @@
       <c r="J131" s="2">
         <v>10000</v>
       </c>
-      <c r="K131" s="24">
+      <c r="K131" s="22">
         <v>40000</v>
       </c>
       <c r="L131" t="b">
@@ -6678,7 +6672,7 @@
       <c r="J132" s="2">
         <v>20000</v>
       </c>
-      <c r="K132" s="24">
+      <c r="K132" s="22">
         <v>70000</v>
       </c>
       <c r="L132" t="b">
@@ -6716,7 +6710,7 @@
       <c r="J133" s="2">
         <v>20000</v>
       </c>
-      <c r="K133" s="24">
+      <c r="K133" s="22">
         <v>90000</v>
       </c>
       <c r="L133" t="b">
@@ -6734,7 +6728,7 @@
         <v>314</v>
       </c>
       <c r="D134" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>168</v>
@@ -6754,7 +6748,7 @@
       <c r="J134" s="2">
         <v>20000</v>
       </c>
-      <c r="K134" s="24">
+      <c r="K134" s="22">
         <v>160000</v>
       </c>
       <c r="L134" t="b">
@@ -6792,7 +6786,7 @@
       <c r="J135" s="2">
         <v>20000</v>
       </c>
-      <c r="K135" s="24">
+      <c r="K135" s="22">
         <v>90000</v>
       </c>
       <c r="L135" t="b">
@@ -6830,11 +6824,11 @@
       <c r="J136" s="2">
         <v>30000</v>
       </c>
-      <c r="K136" s="24">
+      <c r="K136" s="22">
         <v>200000</v>
       </c>
       <c r="L136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -6868,11 +6862,11 @@
       <c r="J137" s="2">
         <v>10000</v>
       </c>
-      <c r="K137" s="24">
+      <c r="K137" s="22">
         <v>80000</v>
       </c>
       <c r="L137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -6886,7 +6880,7 @@
         <v>316</v>
       </c>
       <c r="D138" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>183</v>
@@ -6906,7 +6900,7 @@
       <c r="J138" s="2">
         <v>20000</v>
       </c>
-      <c r="K138" s="24">
+      <c r="K138" s="22">
         <v>140000</v>
       </c>
       <c r="L138" t="b">
@@ -6944,7 +6938,7 @@
       <c r="J139" s="2">
         <v>40000</v>
       </c>
-      <c r="K139" s="24">
+      <c r="K139" s="22">
         <v>120000</v>
       </c>
       <c r="L139" t="b">
@@ -6982,7 +6976,7 @@
       <c r="J140" s="2">
         <v>100000</v>
       </c>
-      <c r="K140" s="24">
+      <c r="K140" s="22">
         <v>280000</v>
       </c>
       <c r="L140" t="b">
@@ -7000,7 +6994,7 @@
         <v>316</v>
       </c>
       <c r="D141" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>183</v>
@@ -7020,7 +7014,7 @@
       <c r="J141" s="2">
         <v>20000</v>
       </c>
-      <c r="K141" s="24">
+      <c r="K141" s="22">
         <v>160000</v>
       </c>
       <c r="L141" t="b">
@@ -7058,7 +7052,7 @@
       <c r="J142" s="2">
         <v>50000</v>
       </c>
-      <c r="K142" s="24">
+      <c r="K142" s="22">
         <v>230000</v>
       </c>
       <c r="L142" t="b">
@@ -7076,7 +7070,7 @@
         <v>316</v>
       </c>
       <c r="D143" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>178</v>
@@ -7096,7 +7090,7 @@
       <c r="J143" s="2">
         <v>20000</v>
       </c>
-      <c r="K143" s="24">
+      <c r="K143" s="22">
         <v>180000</v>
       </c>
       <c r="L143" t="b">
@@ -7134,11 +7128,11 @@
       <c r="J144" s="2">
         <v>50000</v>
       </c>
-      <c r="K144" s="24">
+      <c r="K144" s="22">
         <v>140000</v>
       </c>
       <c r="L144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -7152,7 +7146,7 @@
         <v>314</v>
       </c>
       <c r="D145" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>171</v>
@@ -7172,7 +7166,7 @@
       <c r="J145" s="2">
         <v>60000</v>
       </c>
-      <c r="K145" s="24">
+      <c r="K145" s="22">
         <v>470000</v>
       </c>
       <c r="L145" t="b">
@@ -7210,7 +7204,7 @@
       <c r="J146" s="2">
         <v>100000</v>
       </c>
-      <c r="K146" s="24">
+      <c r="K146" s="22">
         <v>0</v>
       </c>
       <c r="L146" t="b">
@@ -7248,7 +7242,7 @@
       <c r="J147" s="2">
         <v>230000</v>
       </c>
-      <c r="K147" s="24">
+      <c r="K147" s="22">
         <v>0</v>
       </c>
       <c r="L147" t="b">
@@ -7286,7 +7280,7 @@
       <c r="J148" s="2">
         <v>200000</v>
       </c>
-      <c r="K148" s="24">
+      <c r="K148" s="22">
         <v>0</v>
       </c>
       <c r="L148" t="b">
@@ -7324,7 +7318,7 @@
       <c r="J149" s="2">
         <v>50000</v>
       </c>
-      <c r="K149" s="24">
+      <c r="K149" s="22">
         <v>0</v>
       </c>
       <c r="L149" t="b">
@@ -7362,7 +7356,7 @@
       <c r="J150" s="2">
         <v>140000</v>
       </c>
-      <c r="K150" s="24">
+      <c r="K150" s="22">
         <v>0</v>
       </c>
       <c r="L150" t="b">
@@ -7400,7 +7394,7 @@
       <c r="J151" s="2">
         <v>170000</v>
       </c>
-      <c r="K151" s="24">
+      <c r="K151" s="22">
         <v>0</v>
       </c>
       <c r="L151" t="b">
@@ -7438,7 +7432,7 @@
       <c r="J152" s="2">
         <v>140000</v>
       </c>
-      <c r="K152" s="24">
+      <c r="K152" s="22">
         <v>0</v>
       </c>
       <c r="L152" t="b">
@@ -7476,7 +7470,7 @@
       <c r="J153" s="2">
         <v>130000</v>
       </c>
-      <c r="K153" s="24">
+      <c r="K153" s="22">
         <v>0</v>
       </c>
       <c r="L153" t="b">
@@ -7514,7 +7508,7 @@
       <c r="J154" s="2">
         <v>220000</v>
       </c>
-      <c r="K154" s="24">
+      <c r="K154" s="22">
         <v>0</v>
       </c>
       <c r="L154" t="b">
@@ -7552,7 +7546,7 @@
       <c r="J155" s="2">
         <v>50000</v>
       </c>
-      <c r="K155" s="24">
+      <c r="K155" s="22">
         <v>0</v>
       </c>
       <c r="L155" t="b">
@@ -7590,7 +7584,7 @@
       <c r="J156" s="2">
         <v>130000</v>
       </c>
-      <c r="K156" s="24">
+      <c r="K156" s="22">
         <v>0</v>
       </c>
       <c r="L156" t="b">
@@ -7628,7 +7622,7 @@
       <c r="J157" s="2">
         <v>50000</v>
       </c>
-      <c r="K157" s="24">
+      <c r="K157" s="22">
         <v>0</v>
       </c>
       <c r="L157" t="b">
@@ -7666,7 +7660,7 @@
       <c r="J158" s="2">
         <v>290000</v>
       </c>
-      <c r="K158" s="24">
+      <c r="K158" s="22">
         <v>0</v>
       </c>
       <c r="L158" t="b">
@@ -7704,7 +7698,7 @@
       <c r="J159" s="2">
         <v>150000</v>
       </c>
-      <c r="K159" s="24">
+      <c r="K159" s="22">
         <v>0</v>
       </c>
       <c r="L159" t="b">
@@ -7742,7 +7736,7 @@
       <c r="J160" s="2">
         <v>130000</v>
       </c>
-      <c r="K160" s="24">
+      <c r="K160" s="22">
         <v>0</v>
       </c>
       <c r="L160" t="b">
@@ -7780,7 +7774,7 @@
       <c r="J161" s="2">
         <v>160000</v>
       </c>
-      <c r="K161" s="24">
+      <c r="K161" s="22">
         <v>0</v>
       </c>
       <c r="L161" t="b">
@@ -7818,7 +7812,7 @@
       <c r="J162" s="2">
         <v>100000</v>
       </c>
-      <c r="K162" s="24">
+      <c r="K162" s="22">
         <v>0</v>
       </c>
       <c r="L162" t="b">
@@ -7856,7 +7850,7 @@
       <c r="J163" s="2">
         <v>280000</v>
       </c>
-      <c r="K163" s="24">
+      <c r="K163" s="22">
         <v>0</v>
       </c>
       <c r="L163" t="b">
@@ -7894,7 +7888,7 @@
       <c r="J164" s="2">
         <v>120000</v>
       </c>
-      <c r="K164" s="24">
+      <c r="K164" s="22">
         <v>0</v>
       </c>
       <c r="L164" t="b">
@@ -7932,7 +7926,7 @@
       <c r="J165" s="2">
         <v>190000</v>
       </c>
-      <c r="K165" s="24">
+      <c r="K165" s="22">
         <v>0</v>
       </c>
       <c r="L165" t="b">
@@ -7970,7 +7964,7 @@
       <c r="J166" s="2">
         <v>180000</v>
       </c>
-      <c r="K166" s="24">
+      <c r="K166" s="22">
         <v>0</v>
       </c>
       <c r="L166" t="b">
@@ -8008,7 +8002,7 @@
       <c r="J167" s="2">
         <v>290000</v>
       </c>
-      <c r="K167" s="24">
+      <c r="K167" s="22">
         <v>0</v>
       </c>
       <c r="L167" t="b">
@@ -8046,7 +8040,7 @@
       <c r="J168" s="2">
         <v>280000</v>
       </c>
-      <c r="K168" s="24">
+      <c r="K168" s="22">
         <v>0</v>
       </c>
       <c r="L168" t="b">
@@ -8084,7 +8078,7 @@
       <c r="J169" s="2">
         <v>130000</v>
       </c>
-      <c r="K169" s="24">
+      <c r="K169" s="22">
         <v>0</v>
       </c>
       <c r="L169" t="b">
@@ -8122,7 +8116,7 @@
       <c r="J170" s="2">
         <v>100000</v>
       </c>
-      <c r="K170" s="24">
+      <c r="K170" s="22">
         <v>0</v>
       </c>
       <c r="L170" t="b">
@@ -8160,7 +8154,7 @@
       <c r="J171" s="2">
         <v>180000</v>
       </c>
-      <c r="K171" s="24">
+      <c r="K171" s="22">
         <v>0</v>
       </c>
       <c r="L171" t="b">
@@ -8198,7 +8192,7 @@
       <c r="J172" s="2">
         <v>220000</v>
       </c>
-      <c r="K172" s="24">
+      <c r="K172" s="22">
         <v>0</v>
       </c>
       <c r="L172" t="b">
@@ -8236,7 +8230,7 @@
       <c r="J173" s="2">
         <v>280000</v>
       </c>
-      <c r="K173" s="24">
+      <c r="K173" s="22">
         <v>0</v>
       </c>
       <c r="L173" t="b">
@@ -8274,7 +8268,7 @@
       <c r="J174" s="2">
         <v>190000</v>
       </c>
-      <c r="K174" s="24">
+      <c r="K174" s="22">
         <v>0</v>
       </c>
       <c r="L174" t="b">
@@ -8312,7 +8306,7 @@
       <c r="J175" s="2">
         <v>210000</v>
       </c>
-      <c r="K175" s="24">
+      <c r="K175" s="22">
         <v>0</v>
       </c>
       <c r="L175" t="b">
@@ -8350,7 +8344,7 @@
       <c r="J176" s="2">
         <v>130000</v>
       </c>
-      <c r="K176" s="24">
+      <c r="K176" s="22">
         <v>0</v>
       </c>
       <c r="L176" t="b">
@@ -8388,7 +8382,7 @@
       <c r="J177" s="2">
         <v>210000</v>
       </c>
-      <c r="K177" s="24">
+      <c r="K177" s="22">
         <v>0</v>
       </c>
       <c r="L177" t="b">
@@ -8426,7 +8420,7 @@
       <c r="J178" s="2">
         <v>270000</v>
       </c>
-      <c r="K178" s="24">
+      <c r="K178" s="22">
         <v>0</v>
       </c>
       <c r="L178" t="b">
@@ -8464,7 +8458,7 @@
       <c r="J179" s="2">
         <v>240000</v>
       </c>
-      <c r="K179" s="24">
+      <c r="K179" s="22">
         <v>0</v>
       </c>
       <c r="L179" t="b">
@@ -8502,7 +8496,7 @@
       <c r="J180" s="2">
         <v>210000</v>
       </c>
-      <c r="K180" s="24">
+      <c r="K180" s="22">
         <v>0</v>
       </c>
       <c r="L180" t="b">
@@ -8540,7 +8534,7 @@
       <c r="J181" s="2">
         <v>230000</v>
       </c>
-      <c r="K181" s="24">
+      <c r="K181" s="22">
         <v>0</v>
       </c>
       <c r="L181" t="b">
@@ -8578,7 +8572,7 @@
       <c r="J182" s="2">
         <v>220000</v>
       </c>
-      <c r="K182" s="24">
+      <c r="K182" s="22">
         <v>0</v>
       </c>
       <c r="L182" t="b">
@@ -8616,7 +8610,7 @@
       <c r="J183" s="2">
         <v>160000</v>
       </c>
-      <c r="K183" s="24">
+      <c r="K183" s="22">
         <v>0</v>
       </c>
       <c r="L183" t="b">
@@ -8654,7 +8648,7 @@
       <c r="J184" s="2">
         <v>150000</v>
       </c>
-      <c r="K184" s="24">
+      <c r="K184" s="22">
         <v>0</v>
       </c>
       <c r="L184" t="b">
@@ -8692,7 +8686,7 @@
       <c r="J185" s="2">
         <v>120000</v>
       </c>
-      <c r="K185" s="24">
+      <c r="K185" s="22">
         <v>0</v>
       </c>
       <c r="L185" t="b">
@@ -8730,7 +8724,7 @@
       <c r="J186" s="2">
         <v>230000</v>
       </c>
-      <c r="K186" s="24">
+      <c r="K186" s="22">
         <v>0</v>
       </c>
       <c r="L186" t="b">
@@ -8768,7 +8762,7 @@
       <c r="J187" s="2">
         <v>290000</v>
       </c>
-      <c r="K187" s="24">
+      <c r="K187" s="22">
         <v>0</v>
       </c>
       <c r="L187" t="b">
@@ -8806,7 +8800,7 @@
       <c r="J188" s="2">
         <v>60000</v>
       </c>
-      <c r="K188" s="24">
+      <c r="K188" s="22">
         <v>0</v>
       </c>
       <c r="L188" t="b">
@@ -8844,7 +8838,7 @@
       <c r="J189" s="2">
         <v>290000</v>
       </c>
-      <c r="K189" s="24">
+      <c r="K189" s="22">
         <v>0</v>
       </c>
       <c r="L189" t="b">
@@ -8882,7 +8876,7 @@
       <c r="J190" s="2">
         <v>140000</v>
       </c>
-      <c r="K190" s="24">
+      <c r="K190" s="22">
         <v>0</v>
       </c>
       <c r="L190" t="b">
@@ -8920,7 +8914,7 @@
       <c r="J191" s="2">
         <v>240000</v>
       </c>
-      <c r="K191" s="24">
+      <c r="K191" s="22">
         <v>0</v>
       </c>
       <c r="L191" t="b">
@@ -8958,7 +8952,7 @@
       <c r="J192" s="2">
         <v>200000</v>
       </c>
-      <c r="K192" s="24">
+      <c r="K192" s="22">
         <v>0</v>
       </c>
       <c r="L192" t="b">
@@ -8996,7 +8990,7 @@
       <c r="J193" s="2">
         <v>230000</v>
       </c>
-      <c r="K193" s="24">
+      <c r="K193" s="22">
         <v>0</v>
       </c>
       <c r="L193" t="b">
@@ -9034,7 +9028,7 @@
       <c r="J194" s="2">
         <v>90000</v>
       </c>
-      <c r="K194" s="24">
+      <c r="K194" s="22">
         <v>0</v>
       </c>
       <c r="L194" t="b">
@@ -9072,7 +9066,7 @@
       <c r="J195" s="2">
         <v>70000</v>
       </c>
-      <c r="K195" s="24">
+      <c r="K195" s="22">
         <v>0</v>
       </c>
       <c r="L195" t="b">
@@ -9080,59 +9074,52 @@
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B196" s="11"/>
-      <c r="C196" s="12"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="11"/>
       <c r="D196" s="3"/>
       <c r="E196" s="4"/>
       <c r="F196" s="1"/>
       <c r="G196" s="4"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B197" s="14"/>
-      <c r="C197" s="12"/>
+      <c r="B197" s="12"/>
+      <c r="C197" s="11"/>
       <c r="D197" s="3"/>
       <c r="E197" s="1"/>
       <c r="F197" s="4"/>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B198" s="11"/>
-      <c r="C198" s="12"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="11"/>
       <c r="D198" s="3"/>
       <c r="F198" s="1"/>
       <c r="G198" s="4"/>
-      <c r="K198" s="25"/>
+      <c r="K198" s="23"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="13"/>
-      <c r="B199" s="14"/>
-      <c r="C199" s="15"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="13"/>
       <c r="L199" s="2"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" s="10"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="12"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="11"/>
       <c r="L200" s="2"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
       <c r="L201" s="2"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
       <c r="L202" s="2"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
       <c r="L203" s="2"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
       <c r="L204" s="2"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
       <c r="L205" s="2"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -9201,415 +9188,415 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="18">
         <v>20000000</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
         <v>1936</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="18">
         <v>15000000</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>1927</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <v>3000000</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>1936</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <v>2000000</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="20">
+      <c r="E5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="18">
         <v>1963</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <v>4000000</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>1955</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <v>2500000</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <v>1990</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>6000000</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>1923</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <v>3500000</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>1960</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <v>3000000</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <v>1960</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <v>7000000</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="18">
         <v>2001</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="14"/>
       <c r="C17"/>
       <c r="D17"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="14"/>
       <c r="C18"/>
       <c r="D18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="14"/>
       <c r="C19"/>
       <c r="D19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="14"/>
       <c r="C20"/>
       <c r="D20"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="14"/>
       <c r="C21"/>
       <c r="D21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="14"/>
       <c r="C22"/>
       <c r="D22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="14"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
